--- a/document/phonebookfunction.xlsx
+++ b/document/phonebookfunction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>stt</t>
   </si>
@@ -70,6 +70,39 @@
   </si>
   <si>
     <t>công việc</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>deadline android</t>
+  </si>
+  <si>
+    <t>deadline ios</t>
+  </si>
+  <si>
+    <t>deadline design</t>
+  </si>
+  <si>
+    <t>nam</t>
+  </si>
+  <si>
+    <t>trung</t>
+  </si>
+  <si>
+    <t>17/1/2014</t>
+  </si>
+  <si>
+    <t>24/1/2014</t>
+  </si>
+  <si>
+    <t>vuong</t>
+  </si>
+  <si>
+    <t>mai anh</t>
+  </si>
+  <si>
+    <t>team android tu phan cong ^^</t>
   </si>
 </sst>
 </file>
@@ -93,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,12 +134,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,136 +450,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="54.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/document/phonebookfunction.xlsx
+++ b/document/phonebookfunction.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>stt</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>team android tu phan cong ^^</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -450,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -688,9 +691,14 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="E18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
